--- a/biology/Médecine/Syndrome_d'Ondine/Syndrome_d'Ondine.xlsx
+++ b/biology/Médecine/Syndrome_d'Ondine/Syndrome_d'Ondine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ondine</t>
+          <t>Syndrome_d'Ondine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome d'Ondine ou syndrome d'hypoventilation alvéolaire centrale congénitale ou ondinisme est une maladie génétique rare qui se caractérise par une ventilation anormale chez une personne éveillée et une hypoventilation durant le sommeil malgré une fréquence respiratoire normale et un volume respiratoire normal. Dans les cas sévères, une hypoventilation est présente chez l'individu éveillé.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ondine</t>
+          <t>Syndrome_d'Ondine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Le mythe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la légende, la nymphe Ondine, pour punir son mari, simple mortel qui l'avait trompée, lui ôta la possibilité de respirer automatiquement. Il mourut lorsqu'il s'endormit.
 </t>
